--- a/Base indicadores 2025_2.xlsx
+++ b/Base indicadores 2025_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ93"/>
+  <dimension ref="A1:BL93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,12 +390,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>taxa_bruta_freq_esc_pret</t>
+          <t>razao_num_med_est_pb</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>taxa_bruta_freq_esc_bran</t>
+          <t>razao_es_comp_pb</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -616,6 +616,66 @@
       <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>porte_populacional</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>TxMFAG23</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>TxMNDC23</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TxMPADR23</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>TxMMVP23</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>TxMPMDPNN23</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>TxMCEPP23</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>TxFNM23</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>TxMAT23</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>TxMLAP23</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>TxMDAF23</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>PMDCv23</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>PMCMD23</t>
         </is>
       </c>
     </row>
@@ -641,10 +701,10 @@
         <v>49.7099679438254</v>
       </c>
       <c r="G2">
-        <v>20.01</v>
+        <v>0.9292929292929289</v>
       </c>
       <c r="H2">
-        <v>27.33</v>
+        <v>0.6235307808681489</v>
       </c>
       <c r="I2">
         <v>2.06712429781099</v>
@@ -793,6 +853,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA2">
+        <v>2.951303492375799</v>
+      </c>
+      <c r="BB2">
+        <v>0.4644681839294009</v>
+      </c>
+      <c r="BC2">
+        <v>69.67022758941012</v>
+      </c>
+      <c r="BD2">
+        <v>6.18405072035834</v>
+      </c>
+      <c r="BE2">
+        <v>8.360427310729214</v>
+      </c>
+      <c r="BF2">
+        <v>4.568397829453909</v>
+      </c>
+      <c r="BG2">
+        <v>10.38421599169263</v>
+      </c>
+      <c r="BH2">
+        <v>1.949925902815693</v>
+      </c>
+      <c r="BI2">
+        <v>0.6128338551706463</v>
+      </c>
+      <c r="BJ2">
+        <v>3.788427468327632</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +913,10 @@
         <v>69.98654104979811</v>
       </c>
       <c r="G3">
-        <v>22.24</v>
+        <v>0.8673469387755099</v>
       </c>
       <c r="H3">
-        <v>24.15</v>
+        <v>0.26518691588785</v>
       </c>
       <c r="I3">
         <v>1.94173860879998</v>
@@ -969,6 +1065,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA3">
+        <v>3.429355281207133</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>133.9285714285714</v>
+      </c>
+      <c r="BD3">
+        <v>6.156010904933603</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>3.517720517104916</v>
+      </c>
+      <c r="BG3">
+        <v>6.858710562414266</v>
+      </c>
+      <c r="BH3">
+        <v>1.758860258552458</v>
+      </c>
+      <c r="BI3">
+        <v>1.758860258552458</v>
+      </c>
+      <c r="BJ3">
+        <v>1.758860258552458</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -993,10 +1125,10 @@
         <v>50.0056211354694</v>
       </c>
       <c r="G4">
-        <v>21.4</v>
+        <v>0.817307692307692</v>
       </c>
       <c r="H4">
-        <v>22.58</v>
+        <v>0.725545296400375</v>
       </c>
       <c r="I4">
         <v>1.85111447427657</v>
@@ -1145,6 +1277,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA4">
+        <v>5.201523905922708</v>
+      </c>
+      <c r="BB4">
+        <v>1.322751322751323</v>
+      </c>
+      <c r="BC4">
+        <v>82.67195767195767</v>
+      </c>
+      <c r="BD4">
+        <v>5.938242280285036</v>
+      </c>
+      <c r="BE4">
+        <v>4.62962962962963</v>
+      </c>
+      <c r="BF4">
+        <v>4.178763086126507</v>
+      </c>
+      <c r="BG4">
+        <v>13.77700926433582</v>
+      </c>
+      <c r="BH4">
+        <v>1.246297762528958</v>
+      </c>
+      <c r="BI4">
+        <v>1.026362863259142</v>
+      </c>
+      <c r="BJ4">
+        <v>2.712530424327732</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1169,10 +1337,10 @@
         <v>49.6760259179266</v>
       </c>
       <c r="G5">
-        <v>20.62</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="H5">
-        <v>23.7</v>
+        <v>0.329516539440204</v>
       </c>
       <c r="I5">
         <v>2.23072999539837</v>
@@ -1321,6 +1489,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA5">
+        <v>6.460991762235503</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>75.63025210084034</v>
+      </c>
+      <c r="BD5">
+        <v>7.376444553725104</v>
+      </c>
+      <c r="BE5">
+        <v>8.403361344537815</v>
+      </c>
+      <c r="BF5">
+        <v>1.639209900827801</v>
+      </c>
+      <c r="BG5">
+        <v>12.92198352447101</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0.8196049504139005</v>
+      </c>
+      <c r="BJ5">
+        <v>0.8196049504139005</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1345,10 +1549,10 @@
         <v>57.8185668902224</v>
       </c>
       <c r="G6">
-        <v>22.18</v>
+        <v>0.825688073394495</v>
       </c>
       <c r="H6">
-        <v>22.55</v>
+        <v>0.510295126973233</v>
       </c>
       <c r="I6">
         <v>1.96017047558143</v>
@@ -1494,6 +1698,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA6">
+        <v>7.714189286919628</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>61.76961602671119</v>
+      </c>
+      <c r="BD6">
+        <v>4.845313370642247</v>
+      </c>
+      <c r="BE6">
+        <v>10.01669449081803</v>
+      </c>
+      <c r="BF6">
+        <v>4.360782033578022</v>
+      </c>
+      <c r="BG6">
+        <v>10.60701026951449</v>
+      </c>
+      <c r="BH6">
+        <v>2.422656685321123</v>
+      </c>
+      <c r="BI6">
+        <v>1.211328342660562</v>
+      </c>
+      <c r="BJ6">
+        <v>0.9690626741284493</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1518,10 +1758,10 @@
         <v>62.8344895936571</v>
       </c>
       <c r="G7">
-        <v>19.44</v>
+        <v>0.935185185185185</v>
       </c>
       <c r="H7">
-        <v>24.65</v>
+        <v>0.618241654913023</v>
       </c>
       <c r="I7">
         <v>1.78908323136352</v>
@@ -1667,6 +1907,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA7">
+        <v>8.324414317992627</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="BD7">
+        <v>5.842917768620456</v>
+      </c>
+      <c r="BE7">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="BF7">
+        <v>3.382741866043422</v>
+      </c>
+      <c r="BG7">
+        <v>11.89202045427518</v>
+      </c>
+      <c r="BH7">
+        <v>0.6150439756442585</v>
+      </c>
+      <c r="BI7">
+        <v>0.6150439756442585</v>
+      </c>
+      <c r="BJ7">
+        <v>1.537609939110646</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1691,10 +1967,10 @@
         <v>55.360253365004</v>
       </c>
       <c r="G8">
-        <v>24.66</v>
+        <v>0.862385321100918</v>
       </c>
       <c r="H8">
-        <v>24.93</v>
+        <v>0.595662277304415</v>
       </c>
       <c r="I8">
         <v>1.89503202283941</v>
@@ -1843,6 +2119,42 @@
         <is>
           <t>Médio</t>
         </is>
+      </c>
+      <c r="BA8">
+        <v>5.756941912456104</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>93.92898052691866</v>
+      </c>
+      <c r="BD8">
+        <v>5.874607515446166</v>
+      </c>
+      <c r="BE8">
+        <v>5.727376861397479</v>
+      </c>
+      <c r="BF8">
+        <v>2.734731084776663</v>
+      </c>
+      <c r="BG8">
+        <v>13.81666058989465</v>
+      </c>
+      <c r="BH8">
+        <v>0.7090043553124684</v>
+      </c>
+      <c r="BI8">
+        <v>0.6077180188392586</v>
+      </c>
+      <c r="BJ8">
+        <v>1.012863364732098</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1867,10 +2179,10 @@
         <v>45.761316872428</v>
       </c>
       <c r="G9">
-        <v>19.81</v>
+        <v>0.8952380952380951</v>
       </c>
       <c r="H9">
-        <v>23.79</v>
+        <v>0.514251012145749</v>
       </c>
       <c r="I9">
         <v>2.09046625597827</v>
@@ -2019,6 +2331,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA9">
+        <v>6.39761714980912</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>97.6608187134503</v>
+      </c>
+      <c r="BD9">
+        <v>7.072988858671813</v>
+      </c>
+      <c r="BE9">
+        <v>6.432748538011697</v>
+      </c>
+      <c r="BF9">
+        <v>4.276690937801561</v>
+      </c>
+      <c r="BG9">
+        <v>11.43180769392121</v>
+      </c>
+      <c r="BH9">
+        <v>1.535222387928766</v>
+      </c>
+      <c r="BI9">
+        <v>0.5482937099745592</v>
+      </c>
+      <c r="BJ9">
+        <v>3.783226598824458</v>
+      </c>
+      <c r="BK9">
+        <v>1</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2043,10 +2391,10 @@
         <v>46.7876489707476</v>
       </c>
       <c r="G10">
-        <v>24.27</v>
+        <v>0.926315789473684</v>
       </c>
       <c r="H10">
-        <v>27.98</v>
+        <v>1.60571817562968</v>
       </c>
       <c r="I10">
         <v>1.71377102336931</v>
@@ -2192,6 +2540,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA10">
+        <v>3.466152831250536</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>52.12524051075739</v>
+      </c>
+      <c r="BD10">
+        <v>2.489266245356747</v>
+      </c>
+      <c r="BE10">
+        <v>9.095679552212699</v>
+      </c>
+      <c r="BF10">
+        <v>3.820734237059192</v>
+      </c>
+      <c r="BG10">
+        <v>9.205803756117014</v>
+      </c>
+      <c r="BH10">
+        <v>0.7139755897534854</v>
+      </c>
+      <c r="BI10">
+        <v>0.2701529258526701</v>
+      </c>
+      <c r="BJ10">
+        <v>1.794587293164166</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2216,10 +2600,10 @@
         <v>49.4954591321897</v>
       </c>
       <c r="G11">
-        <v>18.33</v>
+        <v>0.839080459770115</v>
       </c>
       <c r="H11">
-        <v>23.22</v>
+        <v>0.176272814601345</v>
       </c>
       <c r="I11">
         <v>1.97603245773943</v>
@@ -2368,6 +2752,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA11">
+        <v>2.68781077812122</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>135.1351351351351</v>
+      </c>
+      <c r="BD11">
+        <v>6.433045539190791</v>
+      </c>
+      <c r="BE11">
+        <v>24.02402402402402</v>
+      </c>
+      <c r="BF11">
+        <v>3.047232097511427</v>
+      </c>
+      <c r="BG11">
+        <v>14.11100658513641</v>
+      </c>
+      <c r="BH11">
+        <v>2.031488065007618</v>
+      </c>
+      <c r="BI11">
+        <v>2.031488065007618</v>
+      </c>
+      <c r="BJ11">
+        <v>2.370069409175554</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2392,10 +2812,10 @@
         <v>61.9960079840319</v>
       </c>
       <c r="G12">
-        <v>24.26</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="H12">
-        <v>25.67</v>
+        <v>0.466842626195975</v>
       </c>
       <c r="I12">
         <v>2.10742486174561</v>
@@ -2544,6 +2964,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA12">
+        <v>2.599968800374395</v>
+      </c>
+      <c r="BB12">
+        <v>1.956947162426614</v>
+      </c>
+      <c r="BC12">
+        <v>150.6849315068493</v>
+      </c>
+      <c r="BD12">
+        <v>5.111786703973742</v>
+      </c>
+      <c r="BE12">
+        <v>3.913894324853229</v>
+      </c>
+      <c r="BF12">
+        <v>2.42137264925072</v>
+      </c>
+      <c r="BG12">
+        <v>8.319900161198065</v>
+      </c>
+      <c r="BH12">
+        <v>1.345207027361511</v>
+      </c>
+      <c r="BI12">
+        <v>0.2690414054723022</v>
+      </c>
+      <c r="BJ12">
+        <v>0.5380828109446043</v>
+      </c>
+      <c r="BK12">
+        <v>1</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2568,10 +3024,10 @@
         <v>55.2049888861447</v>
       </c>
       <c r="G13">
-        <v>24.95</v>
+        <v>0.842592592592593</v>
       </c>
       <c r="H13">
-        <v>24.46</v>
+        <v>0.62581709328609</v>
       </c>
       <c r="I13">
         <v>2.05925600837762</v>
@@ -2720,6 +3176,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA13">
+        <v>3.531015454351361</v>
+      </c>
+      <c r="BB13">
+        <v>0.3937007874015748</v>
+      </c>
+      <c r="BC13">
+        <v>72.44094488188976</v>
+      </c>
+      <c r="BD13">
+        <v>5.188552861571962</v>
+      </c>
+      <c r="BE13">
+        <v>7.086614173228346</v>
+      </c>
+      <c r="BF13">
+        <v>3.317271501660762</v>
+      </c>
+      <c r="BG13">
+        <v>10.75727964000066</v>
+      </c>
+      <c r="BH13">
+        <v>0.8505824363232725</v>
+      </c>
+      <c r="BI13">
+        <v>0.3827620963454725</v>
+      </c>
+      <c r="BJ13">
+        <v>1.956339603543527</v>
+      </c>
+      <c r="BK13">
+        <v>1</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2744,10 +3236,10 @@
         <v>46.9412925505673</v>
       </c>
       <c r="G14">
-        <v>18.74</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="H14">
-        <v>24.21</v>
+        <v>0.860966839792249</v>
       </c>
       <c r="I14">
         <v>1.88642952666361</v>
@@ -2896,6 +3388,42 @@
         <is>
           <t>Médio</t>
         </is>
+      </c>
+      <c r="BA14">
+        <v>3.294241665568586</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>116.8614357262104</v>
+      </c>
+      <c r="BD14">
+        <v>4.188657116528441</v>
+      </c>
+      <c r="BE14">
+        <v>3.33889816360601</v>
+      </c>
+      <c r="BF14">
+        <v>5.026388539834128</v>
+      </c>
+      <c r="BG14">
+        <v>11.85926999604691</v>
+      </c>
+      <c r="BH14">
+        <v>2.513194269917064</v>
+      </c>
+      <c r="BI14">
+        <v>1.172823992627964</v>
+      </c>
+      <c r="BJ14">
+        <v>2.680740554578202</v>
+      </c>
+      <c r="BK14">
+        <v>1</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2920,10 +3448,10 @@
         <v>53.3714285714286</v>
       </c>
       <c r="G15">
-        <v>16.84</v>
+        <v>0.858695652173913</v>
       </c>
       <c r="H15">
-        <v>20.68</v>
+        <v>0.45703125</v>
       </c>
       <c r="I15">
         <v>2.14962755156297</v>
@@ -3072,6 +3600,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA15">
+        <v>11.91579504832517</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>130.7692307692308</v>
+      </c>
+      <c r="BD15">
+        <v>7.945967421533572</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>1.986491855383393</v>
+      </c>
+      <c r="BG15">
+        <v>18.5356811862836</v>
+      </c>
+      <c r="BH15">
+        <v>1.324327903588929</v>
+      </c>
+      <c r="BI15">
+        <v>0.6621639517944643</v>
+      </c>
+      <c r="BJ15">
+        <v>0.6621639517944643</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3096,10 +3660,10 @@
         <v>68.5744016649324</v>
       </c>
       <c r="G16">
-        <v>20.33</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="H16">
-        <v>30.02</v>
+        <v>1.43370165745856</v>
       </c>
       <c r="I16">
         <v>1.62334325128483</v>
@@ -3248,6 +3812,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA16">
+        <v>0.1860319751758932</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>100</v>
+      </c>
+      <c r="BD16">
+        <v>0.07737362951958714</v>
+      </c>
+      <c r="BE16">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="BF16">
+        <v>0.1547472590391743</v>
+      </c>
+      <c r="BG16">
+        <v>0.2976511602814292</v>
+      </c>
+      <c r="BH16">
+        <v>0.1354038516592775</v>
+      </c>
+      <c r="BI16">
+        <v>0.01934340737989678</v>
+      </c>
+      <c r="BJ16">
+        <v>0.07737362951958714</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3272,10 +3872,10 @@
         <v>61.6954474097331</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>0.8979591836734691</v>
       </c>
       <c r="H17">
-        <v>22.86</v>
+        <v>0.775167785234899</v>
       </c>
       <c r="I17">
         <v>1.54680993435715</v>
@@ -3424,6 +4024,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA17">
+        <v>0.978760888714887</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>72.07207207207207</v>
+      </c>
+      <c r="BD17">
+        <v>3.990422984836393</v>
+      </c>
+      <c r="BE17">
+        <v>36.03603603603604</v>
+      </c>
+      <c r="BF17">
+        <v>0.4988028731045491</v>
+      </c>
+      <c r="BG17">
+        <v>6.851326221004208</v>
+      </c>
+      <c r="BH17">
+        <v>0.4988028731045491</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>1</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3448,10 +4084,10 @@
         <v>59.3739784243217</v>
       </c>
       <c r="G18">
-        <v>25.89</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="H18">
-        <v>24.91</v>
+        <v>0.578970304426321</v>
       </c>
       <c r="I18">
         <v>2.4487777933726</v>
@@ -3600,6 +4236,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA18">
+        <v>160.7218384322572</v>
+      </c>
+      <c r="BB18">
+        <v>0.3198976327575176</v>
+      </c>
+      <c r="BC18">
+        <v>101.7274472168906</v>
+      </c>
+      <c r="BD18">
+        <v>258.668903803132</v>
+      </c>
+      <c r="BE18">
+        <v>8.957133717210493</v>
+      </c>
+      <c r="BF18">
+        <v>123.741610738255</v>
+      </c>
+      <c r="BG18">
+        <v>470.8867897927534</v>
+      </c>
+      <c r="BH18">
+        <v>75.503355704698</v>
+      </c>
+      <c r="BI18">
+        <v>25.8668903803132</v>
+      </c>
+      <c r="BJ18">
+        <v>80.39709172259508</v>
+      </c>
+      <c r="BK18">
+        <v>1</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3624,10 +4296,10 @@
         <v>46.0843373493976</v>
       </c>
       <c r="G19">
-        <v>26.27</v>
+        <v>0.79</v>
       </c>
       <c r="H19">
-        <v>19.56</v>
+        <v>0.269364968597348</v>
       </c>
       <c r="I19">
         <v>1.91020856851311</v>
@@ -3776,6 +4448,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA19">
+        <v>10.34431801389094</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>112.1495327102804</v>
+      </c>
+      <c r="BD19">
+        <v>8.223069447559244</v>
+      </c>
+      <c r="BE19">
+        <v>4.672897196261682</v>
+      </c>
+      <c r="BF19">
+        <v>2.990207071839725</v>
+      </c>
+      <c r="BG19">
+        <v>19.21087631151175</v>
+      </c>
+      <c r="BH19">
+        <v>1.495103535919863</v>
+      </c>
+      <c r="BI19">
+        <v>1.495103535919863</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>1</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3800,10 +4508,10 @@
         <v>51.1494252873563</v>
       </c>
       <c r="G20">
-        <v>20.54</v>
+        <v>0.870588235294118</v>
       </c>
       <c r="H20">
-        <v>23.1</v>
+        <v>0.469055374592834</v>
       </c>
       <c r="I20">
         <v>1.64962982926172</v>
@@ -3952,6 +4660,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA20">
+        <v>5.49390176903637</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>148.1481481481482</v>
+      </c>
+      <c r="BD20">
+        <v>6.75219446320054</v>
+      </c>
+      <c r="BE20">
+        <v>14.81481481481481</v>
+      </c>
+      <c r="BF20">
+        <v>1.688048615800135</v>
+      </c>
+      <c r="BG20">
+        <v>6.592682122843643</v>
+      </c>
+      <c r="BH20">
+        <v>1.688048615800135</v>
+      </c>
+      <c r="BI20">
+        <v>1.125365743866757</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>1</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3976,10 +4720,10 @@
         <v>61.5107913669065</v>
       </c>
       <c r="G21">
-        <v>19.86</v>
+        <v>0.74</v>
       </c>
       <c r="H21">
-        <v>21.95</v>
+        <v>0.473507148864592</v>
       </c>
       <c r="I21">
         <v>1.95808804709496</v>
@@ -4128,6 +4872,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA21">
+        <v>0.4063719115734721</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>147.7832512315271</v>
+      </c>
+      <c r="BD21">
+        <v>3.569553805774278</v>
+      </c>
+      <c r="BE21">
+        <v>4.926108374384237</v>
+      </c>
+      <c r="BF21">
+        <v>0.8398950131233596</v>
+      </c>
+      <c r="BG21">
+        <v>3.250975292587777</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0.4199475065616798</v>
+      </c>
+      <c r="BJ21">
+        <v>0.2099737532808399</v>
+      </c>
+      <c r="BK21">
+        <v>1</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4152,10 +4932,10 @@
         <v>61.2549240292628</v>
       </c>
       <c r="G22">
-        <v>23.81</v>
+        <v>0.87378640776699</v>
       </c>
       <c r="H22">
-        <v>27.68</v>
+        <v>0.76890756302521</v>
       </c>
       <c r="I22">
         <v>1.80083070519054</v>
@@ -4304,6 +5084,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA22">
+        <v>10.73191672032625</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>51.28205128205128</v>
+      </c>
+      <c r="BD22">
+        <v>34.39857967154904</v>
+      </c>
+      <c r="BE22">
+        <v>5.917159763313609</v>
+      </c>
+      <c r="BF22">
+        <v>15.53484243231247</v>
+      </c>
+      <c r="BG22">
+        <v>64.39150032195749</v>
+      </c>
+      <c r="BH22">
+        <v>4.438526409232135</v>
+      </c>
+      <c r="BI22">
+        <v>1.109631602308034</v>
+      </c>
+      <c r="BJ22">
+        <v>7.767421216156236</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4328,10 +5144,10 @@
         <v>63.0393996247655</v>
       </c>
       <c r="G23">
-        <v>22.53</v>
+        <v>0.843137254901961</v>
       </c>
       <c r="H23">
-        <v>27.69</v>
+        <v>0.912262156448203</v>
       </c>
       <c r="I23">
         <v>1.85854741951733</v>
@@ -4480,6 +5296,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA23">
+        <v>5.44316429284224</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>96.91629955947137</v>
+      </c>
+      <c r="BD23">
+        <v>4.587997797761057</v>
+      </c>
+      <c r="BE23">
+        <v>13.215859030837</v>
+      </c>
+      <c r="BF23">
+        <v>3.21159845843274</v>
+      </c>
+      <c r="BG23">
+        <v>12.70071668329856</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>1.835199119104423</v>
+      </c>
+      <c r="BJ23">
+        <v>1.835199119104423</v>
+      </c>
+      <c r="BK23">
+        <v>1</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4504,10 +5356,10 @@
         <v>68.0939226519337</v>
       </c>
       <c r="G24">
-        <v>27.24</v>
+        <v>0.815533980582524</v>
       </c>
       <c r="H24">
-        <v>21.23</v>
+        <v>0.229499174463401</v>
       </c>
       <c r="I24">
         <v>1.94408657439809</v>
@@ -4656,6 +5508,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA24">
+        <v>3.563156957063959</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>64.77732793522267</v>
+      </c>
+      <c r="BD24">
+        <v>3.730821247027002</v>
+      </c>
+      <c r="BE24">
+        <v>8.097165991902834</v>
+      </c>
+      <c r="BF24">
+        <v>1.399057967635126</v>
+      </c>
+      <c r="BG24">
+        <v>12.47104934972385</v>
+      </c>
+      <c r="BH24">
+        <v>1.399057967635126</v>
+      </c>
+      <c r="BI24">
+        <v>1.399057967635126</v>
+      </c>
+      <c r="BJ24">
+        <v>0.9327053117567504</v>
+      </c>
+      <c r="BK24">
+        <v>1</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4680,10 +5568,10 @@
         <v>66.0574412532637</v>
       </c>
       <c r="G25">
-        <v>21.14</v>
+        <v>0.7840909090909089</v>
       </c>
       <c r="H25">
-        <v>22.55</v>
+        <v>0.290676416819013</v>
       </c>
       <c r="I25">
         <v>1.59384163467237</v>
@@ -4829,6 +5717,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA25">
+        <v>1.743983257760725</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>61.40350877192982</v>
+      </c>
+      <c r="BD25">
+        <v>5.283085321827948</v>
+      </c>
+      <c r="BE25">
+        <v>8.771929824561402</v>
+      </c>
+      <c r="BF25">
+        <v>2.641542660913974</v>
+      </c>
+      <c r="BG25">
+        <v>17.43983257760726</v>
+      </c>
+      <c r="BH25">
+        <v>1.761028440609316</v>
+      </c>
+      <c r="BI25">
+        <v>3.522056881218631</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>1</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4853,10 +5777,10 @@
         <v>40.4553904874718</v>
       </c>
       <c r="G26">
-        <v>23.99</v>
+        <v>0.938144329896907</v>
       </c>
       <c r="H26">
-        <v>26.21</v>
+        <v>1.39976762892126</v>
       </c>
       <c r="I26">
         <v>1.81628621381088</v>
@@ -5005,6 +5929,42 @@
         <is>
           <t>Muito grande</t>
         </is>
+      </c>
+      <c r="BA26">
+        <v>4.030499649809047</v>
+      </c>
+      <c r="BB26">
+        <v>0.1911132345914955</v>
+      </c>
+      <c r="BC26">
+        <v>72.62302914476827</v>
+      </c>
+      <c r="BD26">
+        <v>5.923762553554946</v>
+      </c>
+      <c r="BE26">
+        <v>7.835642618251313</v>
+      </c>
+      <c r="BF26">
+        <v>4.72982591485395</v>
+      </c>
+      <c r="BG26">
+        <v>12.88438412643876</v>
+      </c>
+      <c r="BH26">
+        <v>0.6314087993130272</v>
+      </c>
+      <c r="BI26">
+        <v>0.470686559487893</v>
+      </c>
+      <c r="BJ26">
+        <v>1.297258078588583</v>
+      </c>
+      <c r="BK26">
+        <v>1</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5029,10 +5989,10 @@
         <v>56.0686015831135</v>
       </c>
       <c r="G27">
-        <v>24.13</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="H27">
-        <v>30.33</v>
+        <v>0.597035040431267</v>
       </c>
       <c r="I27">
         <v>2.21444802177576</v>
@@ -5181,6 +6141,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA27">
+        <v>9.06070673512534</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>147.0588235294118</v>
+      </c>
+      <c r="BD27">
+        <v>7.873395795606645</v>
+      </c>
+      <c r="BE27">
+        <v>7.352941176470588</v>
+      </c>
+      <c r="BF27">
+        <v>1.574679159121329</v>
+      </c>
+      <c r="BG27">
+        <v>22.65176683781335</v>
+      </c>
+      <c r="BH27">
+        <v>0.7873395795606645</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>1.574679159121329</v>
+      </c>
+      <c r="BK27">
+        <v>1</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5205,10 +6201,10 @@
         <v>47.6412649040954</v>
       </c>
       <c r="G28">
-        <v>24.18</v>
+        <v>0.868686868686869</v>
       </c>
       <c r="H28">
-        <v>25.98</v>
+        <v>0.802301685162351</v>
       </c>
       <c r="I28">
         <v>2.01498619119143</v>
@@ -5357,6 +6353,42 @@
         <is>
           <t>Médio</t>
         </is>
+      </c>
+      <c r="BA28">
+        <v>4.324168498432489</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>87.89386401326701</v>
+      </c>
+      <c r="BD28">
+        <v>5.338536872721918</v>
+      </c>
+      <c r="BE28">
+        <v>13.26699834162521</v>
+      </c>
+      <c r="BF28">
+        <v>3.497662089024705</v>
+      </c>
+      <c r="BG28">
+        <v>10.81042124608122</v>
+      </c>
+      <c r="BH28">
+        <v>2.577224697176098</v>
+      </c>
+      <c r="BI28">
+        <v>0.552262435109164</v>
+      </c>
+      <c r="BJ28">
+        <v>2.577224697176098</v>
+      </c>
+      <c r="BK28">
+        <v>1</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5381,10 +6413,10 @@
         <v>51.7103762827822</v>
       </c>
       <c r="G29">
-        <v>24.14</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="H29">
-        <v>20.75</v>
+        <v>0.829524680073126</v>
       </c>
       <c r="I29">
         <v>1.62335264999495</v>
@@ -5530,6 +6562,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA29">
+        <v>5.228758169934641</v>
+      </c>
+      <c r="BB29">
+        <v>3.021148036253777</v>
+      </c>
+      <c r="BC29">
+        <v>102.7190332326284</v>
+      </c>
+      <c r="BD29">
+        <v>2.74791330333528</v>
+      </c>
+      <c r="BE29">
+        <v>6.042296072507553</v>
+      </c>
+      <c r="BF29">
+        <v>5.495826606670559</v>
+      </c>
+      <c r="BG29">
+        <v>24.83660130718954</v>
+      </c>
+      <c r="BH29">
+        <v>1.71744581458455</v>
+      </c>
+      <c r="BI29">
+        <v>1.03046748875073</v>
+      </c>
+      <c r="BJ29">
+        <v>4.12186995500292</v>
+      </c>
+      <c r="BK29">
+        <v>1</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5554,10 +6622,10 @@
         <v>44.0389143636138</v>
       </c>
       <c r="G30">
-        <v>20.82</v>
+        <v>0.907216494845361</v>
       </c>
       <c r="H30">
-        <v>24.23</v>
+        <v>1.25980087118855</v>
       </c>
       <c r="I30">
         <v>1.83082494176485</v>
@@ -5706,6 +6774,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA30">
+        <v>4.278990158322636</v>
+      </c>
+      <c r="BB30">
+        <v>1.141118295930011</v>
+      </c>
+      <c r="BC30">
+        <v>70.74933434766071</v>
+      </c>
+      <c r="BD30">
+        <v>6.050742780837924</v>
+      </c>
+      <c r="BE30">
+        <v>7.98782807151008</v>
+      </c>
+      <c r="BF30">
+        <v>6.050742780837924</v>
+      </c>
+      <c r="BG30">
+        <v>12.02961384132213</v>
+      </c>
+      <c r="BH30">
+        <v>2.29510933066266</v>
+      </c>
+      <c r="BI30">
+        <v>0.5842096478050409</v>
+      </c>
+      <c r="BJ30">
+        <v>3.171423802370222</v>
+      </c>
+      <c r="BK30">
+        <v>1</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5730,10 +6834,10 @@
         <v>54.7427220968955</v>
       </c>
       <c r="G31">
-        <v>25.34</v>
+        <v>0.910891089108911</v>
       </c>
       <c r="H31">
-        <v>28.11</v>
+        <v>1.01883430898447</v>
       </c>
       <c r="I31">
         <v>1.84336200397817</v>
@@ -5882,6 +6986,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA31">
+        <v>4.914628152892496</v>
+      </c>
+      <c r="BB31">
+        <v>0.6443298969072165</v>
+      </c>
+      <c r="BC31">
+        <v>73.45360824742268</v>
+      </c>
+      <c r="BD31">
+        <v>7.591358772461135</v>
+      </c>
+      <c r="BE31">
+        <v>4.510309278350515</v>
+      </c>
+      <c r="BF31">
+        <v>4.280234201494044</v>
+      </c>
+      <c r="BG31">
+        <v>12.04876579418806</v>
+      </c>
+      <c r="BH31">
+        <v>1.534423581667676</v>
+      </c>
+      <c r="BI31">
+        <v>0.6460730870179688</v>
+      </c>
+      <c r="BJ31">
+        <v>2.099737532808399</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5906,10 +7046,10 @@
         <v>49.1289198606272</v>
       </c>
       <c r="G32">
-        <v>14.25</v>
+        <v>0.873563218390805</v>
       </c>
       <c r="H32">
-        <v>19.8</v>
+        <v>0.428396572827417</v>
       </c>
       <c r="I32">
         <v>1.89509654272367</v>
@@ -6055,6 +7195,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA32">
+        <v>6.724045185583647</v>
+      </c>
+      <c r="BB32">
+        <v>7.407407407407407</v>
+      </c>
+      <c r="BC32">
+        <v>81.4814814814815</v>
+      </c>
+      <c r="BD32">
+        <v>11.7039586919105</v>
+      </c>
+      <c r="BE32">
+        <v>7.407407407407407</v>
+      </c>
+      <c r="BF32">
+        <v>2.065404475043029</v>
+      </c>
+      <c r="BG32">
+        <v>9.413663259817106</v>
+      </c>
+      <c r="BH32">
+        <v>1.376936316695353</v>
+      </c>
+      <c r="BI32">
+        <v>0.6884681583476765</v>
+      </c>
+      <c r="BJ32">
+        <v>2.065404475043029</v>
+      </c>
+      <c r="BK32">
+        <v>1</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6079,10 +7255,10 @@
         <v>68.8732394366197</v>
       </c>
       <c r="G33">
-        <v>18.43</v>
+        <v>0.865979381443299</v>
       </c>
       <c r="H33">
-        <v>21.46</v>
+        <v>0.203651685393258</v>
       </c>
       <c r="I33">
         <v>1.84151935091516</v>
@@ -6231,6 +7407,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA33">
+        <v>8.221655841486475</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>133.8582677165354</v>
+      </c>
+      <c r="BD33">
+        <v>8.028055942874044</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>1.690117040605062</v>
+      </c>
+      <c r="BG33">
+        <v>14.79898051467566</v>
+      </c>
+      <c r="BH33">
+        <v>3.380234081210124</v>
+      </c>
+      <c r="BI33">
+        <v>0.8450585203025309</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>1</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6255,10 +7467,10 @@
         <v>54.934765924789</v>
       </c>
       <c r="G34">
-        <v>22.4</v>
+        <v>0.819047619047619</v>
       </c>
       <c r="H34">
-        <v>23.96</v>
+        <v>0.536700581395349</v>
       </c>
       <c r="I34">
         <v>2.22229064039409</v>
@@ -6407,6 +7619,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA34">
+        <v>4.730110793748977</v>
+      </c>
+      <c r="BB34">
+        <v>0.9372071227741331</v>
+      </c>
+      <c r="BC34">
+        <v>121.8369259606373</v>
+      </c>
+      <c r="BD34">
+        <v>8.515336964048434</v>
+      </c>
+      <c r="BE34">
+        <v>6.560449859418931</v>
+      </c>
+      <c r="BF34">
+        <v>2.994404207137911</v>
+      </c>
+      <c r="BG34">
+        <v>10.55178561682464</v>
+      </c>
+      <c r="BH34">
+        <v>1.590777235042015</v>
+      </c>
+      <c r="BI34">
+        <v>0.5614507888383583</v>
+      </c>
+      <c r="BJ34">
+        <v>2.900829075664851</v>
+      </c>
+      <c r="BK34">
+        <v>1</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6431,10 +7679,10 @@
         <v>68.7555953446732</v>
       </c>
       <c r="G35">
-        <v>23.53</v>
+        <v>0.875</v>
       </c>
       <c r="H35">
-        <v>25.51</v>
+        <v>0.60470479704797</v>
       </c>
       <c r="I35">
         <v>2.41868008139739</v>
@@ -6583,6 +7831,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA35">
+        <v>4.194128220491312</v>
+      </c>
+      <c r="BB35">
+        <v>2.801120448179272</v>
+      </c>
+      <c r="BC35">
+        <v>56.02240896358543</v>
+      </c>
+      <c r="BD35">
+        <v>7.065835150993825</v>
+      </c>
+      <c r="BE35">
+        <v>14.00560224089636</v>
+      </c>
+      <c r="BF35">
+        <v>2.150471567693773</v>
+      </c>
+      <c r="BG35">
+        <v>13.18154583582984</v>
+      </c>
+      <c r="BH35">
+        <v>0.6144204479125065</v>
+      </c>
+      <c r="BI35">
+        <v>0.3072102239562532</v>
+      </c>
+      <c r="BJ35">
+        <v>2.457681791650026</v>
+      </c>
+      <c r="BK35">
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6607,10 +7891,10 @@
         <v>40.4790905399919</v>
       </c>
       <c r="G36">
-        <v>21.56</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="H36">
-        <v>25.17</v>
+        <v>2.17717391304348</v>
       </c>
       <c r="I36">
         <v>1.47284568421169</v>
@@ -6756,6 +8040,42 @@
         <is>
           <t>Médio</t>
         </is>
+      </c>
+      <c r="BA36">
+        <v>3.451846738004833</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>66.98564593301435</v>
+      </c>
+      <c r="BD36">
+        <v>6.94403693054007</v>
+      </c>
+      <c r="BE36">
+        <v>13.39712918660287</v>
+      </c>
+      <c r="BF36">
+        <v>3.423116796745105</v>
+      </c>
+      <c r="BG36">
+        <v>7.309793092245528</v>
+      </c>
+      <c r="BH36">
+        <v>1.075836707548462</v>
+      </c>
+      <c r="BI36">
+        <v>0.2934100111495804</v>
+      </c>
+      <c r="BJ36">
+        <v>1.858263403947342</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6780,10 +8100,10 @@
         <v>55.8282208588957</v>
       </c>
       <c r="G37">
-        <v>22.87</v>
+        <v>0.82</v>
       </c>
       <c r="H37">
-        <v>21.3</v>
+        <v>0.590361445783133</v>
       </c>
       <c r="I37">
         <v>1.64770758287356</v>
@@ -6929,6 +8249,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA37">
+        <v>7.822685788787483</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>562.5</v>
+      </c>
+      <c r="BD37">
+        <v>2.636783124588002</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>7.910349373764008</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>1.318391562294001</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>3.955174686882004</v>
+      </c>
+      <c r="BK37">
+        <v>1</v>
+      </c>
+      <c r="BL37">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6953,10 +8309,10 @@
         <v>64.0374873353597</v>
       </c>
       <c r="G38">
-        <v>25.7</v>
+        <v>0.850877192982456</v>
       </c>
       <c r="H38">
-        <v>29.28</v>
+        <v>0.691332032453528</v>
       </c>
       <c r="I38">
         <v>2.68262383288495</v>
@@ -7105,6 +8461,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA38">
+        <v>2.686567164179104</v>
+      </c>
+      <c r="BB38">
+        <v>1.916320664324497</v>
+      </c>
+      <c r="BC38">
+        <v>38.96518684126477</v>
+      </c>
+      <c r="BD38">
+        <v>4.56199132838287</v>
+      </c>
+      <c r="BE38">
+        <v>4.15202810603641</v>
+      </c>
+      <c r="BF38">
+        <v>2.913540680311749</v>
+      </c>
+      <c r="BG38">
+        <v>10.22388059701493</v>
+      </c>
+      <c r="BH38">
+        <v>0.9584015395762332</v>
+      </c>
+      <c r="BI38">
+        <v>0.6133769853287891</v>
+      </c>
+      <c r="BJ38">
+        <v>1.68678670965417</v>
+      </c>
+      <c r="BK38">
+        <v>1</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7129,10 +8521,10 @@
         <v>69.8060941828255</v>
       </c>
       <c r="G39">
-        <v>24.97</v>
+        <v>0.852941176470588</v>
       </c>
       <c r="H39">
-        <v>23.02</v>
+        <v>0.481481481481481</v>
       </c>
       <c r="I39">
         <v>2.29863823843921</v>
@@ -7272,6 +8664,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>49.50495049504951</v>
+      </c>
+      <c r="BD39">
+        <v>10.72194424588992</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>13.94214011850819</v>
+      </c>
+      <c r="BH39">
+        <v>3.57398141529664</v>
+      </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
+        <v>1.78699070764832</v>
+      </c>
+      <c r="BK39">
+        <v>0</v>
+      </c>
+      <c r="BL39">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7296,10 +8724,10 @@
         <v>47.9574110395069</v>
       </c>
       <c r="G40">
-        <v>24.14</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="H40">
-        <v>26.78</v>
+        <v>1.09354581673307</v>
       </c>
       <c r="I40">
         <v>1.84455132506321</v>
@@ -7448,6 +8876,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA40">
+        <v>5.030221249890213</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>80.32955715756952</v>
+      </c>
+      <c r="BD40">
+        <v>6.960309856617616</v>
+      </c>
+      <c r="BE40">
+        <v>10.29866117404737</v>
+      </c>
+      <c r="BF40">
+        <v>4.913159898788907</v>
+      </c>
+      <c r="BG40">
+        <v>14.13252636873917</v>
+      </c>
+      <c r="BH40">
+        <v>1.596776967106394</v>
+      </c>
+      <c r="BI40">
+        <v>0.3275439932525938</v>
+      </c>
+      <c r="BJ40">
+        <v>1.596776967106394</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7472,10 +8936,10 @@
         <v>57.4094811496827</v>
       </c>
       <c r="G41">
-        <v>19.93</v>
+        <v>0.91588785046729</v>
       </c>
       <c r="H41">
-        <v>24.27</v>
+        <v>1.08780991735537</v>
       </c>
       <c r="I41">
         <v>1.82917244862018</v>
@@ -7624,6 +9088,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA41">
+        <v>4.111278607646979</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>75</v>
+      </c>
+      <c r="BD41">
+        <v>6.933049848628412</v>
+      </c>
+      <c r="BE41">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="BF41">
+        <v>3.9287282475561</v>
+      </c>
+      <c r="BG41">
+        <v>10.04979215202595</v>
+      </c>
+      <c r="BH41">
+        <v>2.773219939451364</v>
+      </c>
+      <c r="BI41">
+        <v>0.4622033232418941</v>
+      </c>
+      <c r="BJ41">
+        <v>0.231101661620947</v>
+      </c>
+      <c r="BK41">
+        <v>1</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7648,10 +9148,10 @@
         <v>54.0396520648852</v>
       </c>
       <c r="G42">
-        <v>23.3</v>
+        <v>0.9217391304347829</v>
       </c>
       <c r="H42">
-        <v>25.87</v>
+        <v>0.726259719586114</v>
       </c>
       <c r="I42">
         <v>1.8160389503991</v>
@@ -7800,6 +9300,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA42">
+        <v>3.753049352598987</v>
+      </c>
+      <c r="BB42">
+        <v>0.4564125969876768</v>
+      </c>
+      <c r="BC42">
+        <v>67.54906435417618</v>
+      </c>
+      <c r="BD42">
+        <v>7.709875914638581</v>
+      </c>
+      <c r="BE42">
+        <v>5.020538566864445</v>
+      </c>
+      <c r="BF42">
+        <v>2.715427995092834</v>
+      </c>
+      <c r="BG42">
+        <v>15.76280728091574</v>
+      </c>
+      <c r="BH42">
+        <v>1.357713997546417</v>
+      </c>
+      <c r="BI42">
+        <v>0.4364080706399197</v>
+      </c>
+      <c r="BJ42">
+        <v>0.9213059269064972</v>
+      </c>
+      <c r="BK42">
+        <v>1</v>
+      </c>
+      <c r="BL42">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7824,10 +9360,10 @@
         <v>69.4170403587444</v>
       </c>
       <c r="G43">
-        <v>21.38</v>
+        <v>0.898148148148148</v>
       </c>
       <c r="H43">
-        <v>24.1</v>
+        <v>0.524812030075188</v>
       </c>
       <c r="I43">
         <v>1.75375613339981</v>
@@ -7976,6 +9512,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA43">
+        <v>13.64972700545989</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>220.6896551724138</v>
+      </c>
+      <c r="BD43">
+        <v>9.394860458690246</v>
+      </c>
+      <c r="BE43">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="BF43">
+        <v>3.315833103067146</v>
+      </c>
+      <c r="BG43">
+        <v>14.69970600587988</v>
+      </c>
+      <c r="BH43">
+        <v>2.763194252555955</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>1.105277701022382</v>
+      </c>
+      <c r="BK43">
+        <v>1</v>
+      </c>
+      <c r="BL43">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -8000,10 +9572,10 @@
         <v>55.1488994389297</v>
       </c>
       <c r="G44">
-        <v>23.08</v>
+        <v>0.951456310679612</v>
       </c>
       <c r="H44">
-        <v>24.26</v>
+        <v>1.23022905868584</v>
       </c>
       <c r="I44">
         <v>1.78263088318202</v>
@@ -8149,6 +9721,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA44">
+        <v>3.917416622551614</v>
+      </c>
+      <c r="BB44">
+        <v>0.5449591280653951</v>
+      </c>
+      <c r="BC44">
+        <v>97.00272479564033</v>
+      </c>
+      <c r="BD44">
+        <v>7.599251250244461</v>
+      </c>
+      <c r="BE44">
+        <v>7.629427792915531</v>
+      </c>
+      <c r="BF44">
+        <v>3.408487693124354</v>
+      </c>
+      <c r="BG44">
+        <v>12.06987824245633</v>
+      </c>
+      <c r="BH44">
+        <v>0.7822758639957533</v>
+      </c>
+      <c r="BI44">
+        <v>0.3911379319978767</v>
+      </c>
+      <c r="BJ44">
+        <v>1.788059117704579</v>
+      </c>
+      <c r="BK44">
+        <v>1</v>
+      </c>
+      <c r="BL44">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -8173,10 +9781,10 @@
         <v>64.4375</v>
       </c>
       <c r="G45">
-        <v>21.92</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H45">
-        <v>21.41</v>
+        <v>0.406611570247934</v>
       </c>
       <c r="I45">
         <v>2.33865195068021</v>
@@ -8325,6 +9933,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA45">
+        <v>12.21747098350641</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>119.4029850746269</v>
+      </c>
+      <c r="BD45">
+        <v>9.644579389176638</v>
+      </c>
+      <c r="BE45">
+        <v>11.19402985074627</v>
+      </c>
+      <c r="BF45">
+        <v>2.143239864261475</v>
+      </c>
+      <c r="BG45">
+        <v>17.64745808728704</v>
+      </c>
+      <c r="BH45">
+        <v>0.3572066440435792</v>
+      </c>
+      <c r="BI45">
+        <v>0</v>
+      </c>
+      <c r="BJ45">
+        <v>3.214859796392213</v>
+      </c>
+      <c r="BK45">
+        <v>1</v>
+      </c>
+      <c r="BL45">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -8349,10 +9993,10 @@
         <v>50.4264927245359</v>
       </c>
       <c r="G46">
-        <v>26.3</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H46">
-        <v>24.1</v>
+        <v>0.768736616702356</v>
       </c>
       <c r="I46">
         <v>2.21907727725876</v>
@@ -8501,6 +10145,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA46">
+        <v>1.367334381623026</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>63.89776357827476</v>
+      </c>
+      <c r="BD46">
+        <v>7.394626571358146</v>
+      </c>
+      <c r="BE46">
+        <v>19.16932907348243</v>
+      </c>
+      <c r="BF46">
+        <v>0.7042501496531568</v>
+      </c>
+      <c r="BG46">
+        <v>12.98967662541875</v>
+      </c>
+      <c r="BH46">
+        <v>0.3521250748265784</v>
+      </c>
+      <c r="BI46">
+        <v>0.3521250748265784</v>
+      </c>
+      <c r="BJ46">
+        <v>2.11275044895947</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -8525,10 +10205,10 @@
         <v>67.6877470355731</v>
       </c>
       <c r="G47">
-        <v>17.36</v>
+        <v>0.8</v>
       </c>
       <c r="H47">
-        <v>24.49</v>
+        <v>0.4853228962818</v>
       </c>
       <c r="I47">
         <v>2.04163414714579</v>
@@ -8677,6 +10357,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA47">
+        <v>2.512562814070352</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>118.8811188811189</v>
+      </c>
+      <c r="BD47">
+        <v>9.000900090009001</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>1.928764305001929</v>
+      </c>
+      <c r="BG47">
+        <v>6.28140703517588</v>
+      </c>
+      <c r="BH47">
+        <v>3.857528610003857</v>
+      </c>
+      <c r="BI47">
+        <v>1.285842870001286</v>
+      </c>
+      <c r="BJ47">
+        <v>0.6429214350006429</v>
+      </c>
+      <c r="BK47">
+        <v>0</v>
+      </c>
+      <c r="BL47">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -8701,10 +10417,10 @@
         <v>51.72080017208</v>
       </c>
       <c r="G48">
-        <v>21.89</v>
+        <v>0.900900900900901</v>
       </c>
       <c r="H48">
-        <v>21.69</v>
+        <v>1.18816162218578</v>
       </c>
       <c r="I48">
         <v>1.69232257090559</v>
@@ -8850,6 +10566,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA48">
+        <v>6.025548324897565</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>142.1911421911422</v>
+      </c>
+      <c r="BD48">
+        <v>6.448894110435715</v>
+      </c>
+      <c r="BE48">
+        <v>8.547008547008549</v>
+      </c>
+      <c r="BF48">
+        <v>3.256372273586352</v>
+      </c>
+      <c r="BG48">
+        <v>12.41262954928898</v>
+      </c>
+      <c r="BH48">
+        <v>0.7662052408438473</v>
+      </c>
+      <c r="BI48">
+        <v>0.5108034938958982</v>
+      </c>
+      <c r="BJ48">
+        <v>1.213158298002758</v>
+      </c>
+      <c r="BK48">
+        <v>0</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -8874,10 +10626,10 @@
         <v>62.0859920996658</v>
       </c>
       <c r="G49">
-        <v>24.98</v>
+        <v>0.7803030303030301</v>
       </c>
       <c r="H49">
-        <v>23.42</v>
+        <v>0.31988845988846</v>
       </c>
       <c r="I49">
         <v>2.75017082561333</v>
@@ -9023,6 +10775,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA49">
+        <v>5.068223318140645</v>
+      </c>
+      <c r="BB49">
+        <v>1.226241569589209</v>
+      </c>
+      <c r="BC49">
+        <v>106.4786429593297</v>
+      </c>
+      <c r="BD49">
+        <v>6.924363896598745</v>
+      </c>
+      <c r="BE49">
+        <v>5.92683425301451</v>
+      </c>
+      <c r="BF49">
+        <v>2.011547053760529</v>
+      </c>
+      <c r="BG49">
+        <v>19.05076850081235</v>
+      </c>
+      <c r="BH49">
+        <v>1.044457124067967</v>
+      </c>
+      <c r="BI49">
+        <v>0.7349883465663473</v>
+      </c>
+      <c r="BJ49">
+        <v>0.6963047493786447</v>
+      </c>
+      <c r="BK49">
+        <v>1</v>
+      </c>
+      <c r="BL49">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -9047,10 +10835,10 @@
         <v>58.9711751662971</v>
       </c>
       <c r="G50">
-        <v>20.34</v>
+        <v>0.821782178217822</v>
       </c>
       <c r="H50">
-        <v>21.89</v>
+        <v>0.202080598901366</v>
       </c>
       <c r="I50">
         <v>1.96866615278989</v>
@@ -9199,6 +10987,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA50">
+        <v>4.471506041290077</v>
+      </c>
+      <c r="BB50">
+        <v>0.5431830526887561</v>
+      </c>
+      <c r="BC50">
+        <v>99.40249864204237</v>
+      </c>
+      <c r="BD50">
+        <v>9.666743934857983</v>
+      </c>
+      <c r="BE50">
+        <v>10.32047800108637</v>
+      </c>
+      <c r="BF50">
+        <v>1.528923785615293</v>
+      </c>
+      <c r="BG50">
+        <v>12.74854913899724</v>
+      </c>
+      <c r="BH50">
+        <v>1.775524396198405</v>
+      </c>
+      <c r="BI50">
+        <v>0.9370823202158248</v>
+      </c>
+      <c r="BJ50">
+        <v>0.7398018317493354</v>
+      </c>
+      <c r="BK50">
+        <v>0</v>
+      </c>
+      <c r="BL50">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -9223,10 +11047,10 @@
         <v>35.616793365584</v>
       </c>
       <c r="G51">
-        <v>22.74</v>
+        <v>0.919191919191919</v>
       </c>
       <c r="H51">
-        <v>25.57</v>
+        <v>1.07547857793984</v>
       </c>
       <c r="I51">
         <v>2.08353660372813</v>
@@ -9375,6 +11199,42 @@
         <is>
           <t>Muito grande</t>
         </is>
+      </c>
+      <c r="BA51">
+        <v>4.344809544932382</v>
+      </c>
+      <c r="BB51">
+        <v>0.4070832485243232</v>
+      </c>
+      <c r="BC51">
+        <v>74.59800529208223</v>
+      </c>
+      <c r="BD51">
+        <v>7.457687405519163</v>
+      </c>
+      <c r="BE51">
+        <v>6.716873600651334</v>
+      </c>
+      <c r="BF51">
+        <v>3.616207724456828</v>
+      </c>
+      <c r="BG51">
+        <v>12.05627779483855</v>
+      </c>
+      <c r="BH51">
+        <v>1.078934107952693</v>
+      </c>
+      <c r="BI51">
+        <v>0.2964104692177728</v>
+      </c>
+      <c r="BJ51">
+        <v>1.968165515606011</v>
+      </c>
+      <c r="BK51">
+        <v>1</v>
+      </c>
+      <c r="BL51">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -9399,10 +11259,10 @@
         <v>40.0306748466258</v>
       </c>
       <c r="G52">
-        <v>16.3</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="H52">
-        <v>23.06</v>
+        <v>0.766999524488826</v>
       </c>
       <c r="I52">
         <v>2.04194716713522</v>
@@ -9551,6 +11411,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA52">
+        <v>8.785416209092906</v>
+      </c>
+      <c r="BB52">
+        <v>2.272727272727272</v>
+      </c>
+      <c r="BC52">
+        <v>95.45454545454545</v>
+      </c>
+      <c r="BD52">
+        <v>4.992397939501214</v>
+      </c>
+      <c r="BE52">
+        <v>2.272727272727272</v>
+      </c>
+      <c r="BF52">
+        <v>2.950053327887081</v>
+      </c>
+      <c r="BG52">
+        <v>13.17812431363936</v>
+      </c>
+      <c r="BH52">
+        <v>1.815417432545896</v>
+      </c>
+      <c r="BI52">
+        <v>0.680781537204711</v>
+      </c>
+      <c r="BJ52">
+        <v>2.723126148818844</v>
+      </c>
+      <c r="BK52">
+        <v>0</v>
+      </c>
+      <c r="BL52">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -9575,10 +11471,10 @@
         <v>62.0759153510245</v>
       </c>
       <c r="G53">
-        <v>26.37</v>
+        <v>0.838383838383838</v>
       </c>
       <c r="H53">
-        <v>26.92</v>
+        <v>0.440097799511002</v>
       </c>
       <c r="I53">
         <v>1.88911967537819</v>
@@ -9727,6 +11623,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA53">
+        <v>7.263094932923182</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>115.3846153846154</v>
+      </c>
+      <c r="BD53">
+        <v>9.452646741087506</v>
+      </c>
+      <c r="BE53">
+        <v>6.41025641025641</v>
+      </c>
+      <c r="BF53">
+        <v>3.375945264674109</v>
+      </c>
+      <c r="BG53">
+        <v>11.96274459540289</v>
+      </c>
+      <c r="BH53">
+        <v>0.9002520705797624</v>
+      </c>
+      <c r="BI53">
+        <v>0.2250630176449406</v>
+      </c>
+      <c r="BJ53">
+        <v>0.6751890529348217</v>
+      </c>
+      <c r="BK53">
+        <v>1</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -9751,10 +11683,10 @@
         <v>42.7538247566064</v>
       </c>
       <c r="G54">
-        <v>22.11</v>
+        <v>0.893203883495145</v>
       </c>
       <c r="H54">
-        <v>24.23</v>
+        <v>0.516379310344828</v>
       </c>
       <c r="I54">
         <v>1.8970024090938</v>
@@ -9903,6 +11835,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA54">
+        <v>4.227078665933973</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>46.09929078014184</v>
+      </c>
+      <c r="BD54">
+        <v>5.108230636613244</v>
+      </c>
+      <c r="BE54">
+        <v>5.319148936170213</v>
+      </c>
+      <c r="BF54">
+        <v>4.682544750228806</v>
+      </c>
+      <c r="BG54">
+        <v>8.031449465274548</v>
+      </c>
+      <c r="BH54">
+        <v>2.341272375114403</v>
+      </c>
+      <c r="BI54">
+        <v>0.6385288295766555</v>
+      </c>
+      <c r="BJ54">
+        <v>2.979801204691059</v>
+      </c>
+      <c r="BK54">
+        <v>1</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -9927,10 +11895,10 @@
         <v>47.2210065645514</v>
       </c>
       <c r="G55">
-        <v>20.34</v>
+        <v>0.811111111111111</v>
       </c>
       <c r="H55">
-        <v>24</v>
+        <v>0.505776636713736</v>
       </c>
       <c r="I55">
         <v>2.49923267284681</v>
@@ -10079,6 +12047,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA55">
+        <v>5.004378831477543</v>
+      </c>
+      <c r="BB55">
+        <v>2.801120448179272</v>
+      </c>
+      <c r="BC55">
+        <v>100.8403361344538</v>
+      </c>
+      <c r="BD55">
+        <v>7.073954983922829</v>
+      </c>
+      <c r="BE55">
+        <v>2.801120448179272</v>
+      </c>
+      <c r="BF55">
+        <v>3.536977491961415</v>
+      </c>
+      <c r="BG55">
+        <v>12.51094707869386</v>
+      </c>
+      <c r="BH55">
+        <v>1.929260450160772</v>
+      </c>
+      <c r="BI55">
+        <v>0.3215434083601286</v>
+      </c>
+      <c r="BJ55">
+        <v>1.929260450160772</v>
+      </c>
+      <c r="BK55">
+        <v>1</v>
+      </c>
+      <c r="BL55">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -10103,10 +12107,10 @@
         <v>55.2431132237558</v>
       </c>
       <c r="G56">
-        <v>22.24</v>
+        <v>0.811320754716981</v>
       </c>
       <c r="H56">
-        <v>23.42</v>
+        <v>0.268010108635006</v>
       </c>
       <c r="I56">
         <v>2.3269088060686</v>
@@ -10255,6 +12259,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA56">
+        <v>7.556642801337142</v>
+      </c>
+      <c r="BB56">
+        <v>0.6587615283267457</v>
+      </c>
+      <c r="BC56">
+        <v>111.33069828722</v>
+      </c>
+      <c r="BD56">
+        <v>6.947442262033239</v>
+      </c>
+      <c r="BE56">
+        <v>6.587615283267457</v>
+      </c>
+      <c r="BF56">
+        <v>2.124703216058709</v>
+      </c>
+      <c r="BG56">
+        <v>18.31525289137646</v>
+      </c>
+      <c r="BH56">
+        <v>1.315292467083963</v>
+      </c>
+      <c r="BI56">
+        <v>0.7082344053529031</v>
+      </c>
+      <c r="BJ56">
+        <v>0.7082344053529031</v>
+      </c>
+      <c r="BK56">
+        <v>1</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -10279,10 +12319,10 @@
         <v>55.1763367463026</v>
       </c>
       <c r="G57">
-        <v>24.81</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="H57">
-        <v>24.42</v>
+        <v>0.8526622902990521</v>
       </c>
       <c r="I57">
         <v>1.96508196256113</v>
@@ -10431,6 +12471,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA57">
+        <v>4.656938838869916</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>73.68421052631578</v>
+      </c>
+      <c r="BD57">
+        <v>6.398976163813789</v>
+      </c>
+      <c r="BE57">
+        <v>7.017543859649123</v>
+      </c>
+      <c r="BF57">
+        <v>3.599424092145257</v>
+      </c>
+      <c r="BG57">
+        <v>17.85159888233468</v>
+      </c>
+      <c r="BH57">
+        <v>0.7998720204767237</v>
+      </c>
+      <c r="BI57">
+        <v>0.7998720204767237</v>
+      </c>
+      <c r="BJ57">
+        <v>2.399616061430171</v>
+      </c>
+      <c r="BK57">
+        <v>1</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -10455,10 +12531,10 @@
         <v>58.3789159622079</v>
       </c>
       <c r="G58">
-        <v>19.3</v>
+        <v>0.872549019607843</v>
       </c>
       <c r="H58">
-        <v>24.24</v>
+        <v>0.6320916905444131</v>
       </c>
       <c r="I58">
         <v>1.9143432599626</v>
@@ -10607,6 +12683,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA58">
+        <v>7.373148334338762</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>92.59259259259258</v>
+      </c>
+      <c r="BD58">
+        <v>9.671848013816927</v>
+      </c>
+      <c r="BE58">
+        <v>6.172839506172839</v>
+      </c>
+      <c r="BF58">
+        <v>2.763385146804836</v>
+      </c>
+      <c r="BG58">
+        <v>22.7897312152289</v>
+      </c>
+      <c r="BH58">
+        <v>1.381692573402418</v>
+      </c>
+      <c r="BI58">
+        <v>0.3454231433506045</v>
+      </c>
+      <c r="BJ58">
+        <v>0</v>
+      </c>
+      <c r="BK58">
+        <v>1</v>
+      </c>
+      <c r="BL58">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -10631,10 +12743,10 @@
         <v>57.4882995319813</v>
       </c>
       <c r="G59">
-        <v>20.61</v>
+        <v>0.811881188118812</v>
       </c>
       <c r="H59">
-        <v>21.16</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I59">
         <v>1.96865490643357</v>
@@ -10783,6 +12895,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA59">
+        <v>3.349709691826708</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>160.7142857142857</v>
+      </c>
+      <c r="BD59">
+        <v>8.410900527083101</v>
+      </c>
+      <c r="BE59">
+        <v>23.80952380952381</v>
+      </c>
+      <c r="BF59">
+        <v>1.12145340361108</v>
+      </c>
+      <c r="BG59">
+        <v>5.582849486377847</v>
+      </c>
+      <c r="BH59">
+        <v>2.24290680722216</v>
+      </c>
+      <c r="BI59">
+        <v>1.68218010541662</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BK59">
+        <v>1</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -10807,10 +12955,10 @@
         <v>60.3122966818478</v>
       </c>
       <c r="G60">
-        <v>31.51</v>
+        <v>0.87</v>
       </c>
       <c r="H60">
-        <v>32.65</v>
+        <v>0.8772112382934441</v>
       </c>
       <c r="I60">
         <v>1.48607264884351</v>
@@ -10959,6 +13107,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA60">
+        <v>3.741814780168382</v>
+      </c>
+      <c r="BB60">
+        <v>0</v>
+      </c>
+      <c r="BC60">
+        <v>79.54545454545455</v>
+      </c>
+      <c r="BD60">
+        <v>5.771172990910403</v>
+      </c>
+      <c r="BE60">
+        <v>7.575757575757576</v>
+      </c>
+      <c r="BF60">
+        <v>3.847448660606935</v>
+      </c>
+      <c r="BG60">
+        <v>16.83816651075772</v>
+      </c>
+      <c r="BH60">
+        <v>0.9618621651517337</v>
+      </c>
+      <c r="BI60">
+        <v>0.4809310825758669</v>
+      </c>
+      <c r="BJ60">
+        <v>5.290241908334536</v>
+      </c>
+      <c r="BK60">
+        <v>0</v>
+      </c>
+      <c r="BL60">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -10983,10 +13167,10 @@
         <v>58.1589958158996</v>
       </c>
       <c r="G61">
-        <v>22.61</v>
+        <v>0.848484848484848</v>
       </c>
       <c r="H61">
-        <v>27.5</v>
+        <v>0.607052896725441</v>
       </c>
       <c r="I61">
         <v>1.64738428407305</v>
@@ -11135,6 +13319,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA61">
+        <v>5.469711472719815</v>
+      </c>
+      <c r="BB61">
+        <v>0</v>
+      </c>
+      <c r="BC61">
+        <v>64.28571428571428</v>
+      </c>
+      <c r="BD61">
+        <v>6.378907080586859</v>
+      </c>
+      <c r="BE61">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="BF61">
+        <v>3.5438372669927</v>
+      </c>
+      <c r="BG61">
+        <v>8.204567209079721</v>
+      </c>
+      <c r="BH61">
+        <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>0.70876745339854</v>
+      </c>
+      <c r="BJ61">
+        <v>0.70876745339854</v>
+      </c>
+      <c r="BK61">
+        <v>0</v>
+      </c>
+      <c r="BL61">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -11159,10 +13379,10 @@
         <v>37.0396982216634</v>
       </c>
       <c r="G62">
-        <v>22.81</v>
+        <v>0.918367346938775</v>
       </c>
       <c r="H62">
-        <v>25.82</v>
+        <v>1.53935018050542</v>
       </c>
       <c r="I62">
         <v>1.72459276916965</v>
@@ -11308,6 +13528,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA62">
+        <v>2.711216690766371</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>58.79180151024811</v>
+      </c>
+      <c r="BD62">
+        <v>7.180340629991008</v>
+      </c>
+      <c r="BE62">
+        <v>4.854368932038835</v>
+      </c>
+      <c r="BF62">
+        <v>5.502690950086567</v>
+      </c>
+      <c r="BG62">
+        <v>9.941127866143358</v>
+      </c>
+      <c r="BH62">
+        <v>1.476331718315908</v>
+      </c>
+      <c r="BI62">
+        <v>0.2013179615885329</v>
+      </c>
+      <c r="BJ62">
+        <v>3.086875411024171</v>
+      </c>
+      <c r="BK62">
+        <v>0</v>
+      </c>
+      <c r="BL62">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -11332,10 +13588,10 @@
         <v>58.5193889541716</v>
       </c>
       <c r="G63">
-        <v>23.2</v>
+        <v>0.917525773195876</v>
       </c>
       <c r="H63">
-        <v>26.49</v>
+        <v>1.06674338319908</v>
       </c>
       <c r="I63">
         <v>1.82673976819122</v>
@@ -11484,6 +13740,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA63">
+        <v>2.545824847250509</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>132.5757575757576</v>
+      </c>
+      <c r="BD63">
+        <v>8.704735376044567</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>4.787604456824512</v>
+      </c>
+      <c r="BG63">
+        <v>5.091649694501018</v>
+      </c>
+      <c r="BH63">
+        <v>0</v>
+      </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
+      <c r="BJ63">
+        <v>1.305710306406685</v>
+      </c>
+      <c r="BK63">
+        <v>1</v>
+      </c>
+      <c r="BL63">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -11508,10 +13800,10 @@
         <v>52.0036955768564</v>
       </c>
       <c r="G64">
-        <v>22.78</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="H64">
-        <v>24.45</v>
+        <v>0.56453859121894</v>
       </c>
       <c r="I64">
         <v>2.33484881565485</v>
@@ -11660,6 +13952,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA64">
+        <v>4.676605634601213</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>74.12398921832884</v>
+      </c>
+      <c r="BD64">
+        <v>6.284390596797884</v>
+      </c>
+      <c r="BE64">
+        <v>7.412398921832884</v>
+      </c>
+      <c r="BF64">
+        <v>2.703749442808391</v>
+      </c>
+      <c r="BG64">
+        <v>14.59667819284621</v>
+      </c>
+      <c r="BH64">
+        <v>1.461486185301833</v>
+      </c>
+      <c r="BI64">
+        <v>0.43844585559055</v>
+      </c>
+      <c r="BJ64">
+        <v>3.06912098913385</v>
+      </c>
+      <c r="BK64">
+        <v>1</v>
+      </c>
+      <c r="BL64">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -11684,10 +14012,10 @@
         <v>54.6042421107087</v>
       </c>
       <c r="G65">
-        <v>21.06</v>
+        <v>0.771428571428571</v>
       </c>
       <c r="H65">
-        <v>24.68</v>
+        <v>0.622743195904069</v>
       </c>
       <c r="I65">
         <v>2.03992971984211</v>
@@ -11836,6 +14164,42 @@
         <is>
           <t>Médio</t>
         </is>
+      </c>
+      <c r="BA65">
+        <v>2.302025782688766</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>89.8021308980213</v>
+      </c>
+      <c r="BD65">
+        <v>6.08941287910824</v>
+      </c>
+      <c r="BE65">
+        <v>10.6544901065449</v>
+      </c>
+      <c r="BF65">
+        <v>2.368105008542093</v>
+      </c>
+      <c r="BG65">
+        <v>11.83898973954223</v>
+      </c>
+      <c r="BH65">
+        <v>2.198954650789086</v>
+      </c>
+      <c r="BI65">
+        <v>0.5074510732590199</v>
+      </c>
+      <c r="BJ65">
+        <v>0.5074510732590199</v>
+      </c>
+      <c r="BK65">
+        <v>1</v>
+      </c>
+      <c r="BL65">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -11860,10 +14224,10 @@
         <v>52.3105360443623</v>
       </c>
       <c r="G66">
-        <v>24.01</v>
+        <v>0.811111111111111</v>
       </c>
       <c r="H66">
-        <v>24.09</v>
+        <v>0.320603907637655</v>
       </c>
       <c r="I66">
         <v>1.68245142183675</v>
@@ -12012,6 +14376,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA66">
+        <v>6.56311529205863</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>103.6585365853659</v>
+      </c>
+      <c r="BD66">
+        <v>12.23649813671506</v>
+      </c>
+      <c r="BE66">
+        <v>6.097560975609756</v>
+      </c>
+      <c r="BF66">
+        <v>3.893431225318427</v>
+      </c>
+      <c r="BG66">
+        <v>16.40778823014658</v>
+      </c>
+      <c r="BH66">
+        <v>1.112408921519551</v>
+      </c>
+      <c r="BI66">
+        <v>0.5562044607597753</v>
+      </c>
+      <c r="BJ66">
+        <v>2.224817843039101</v>
+      </c>
+      <c r="BK66">
+        <v>0</v>
+      </c>
+      <c r="BL66">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -12036,10 +14436,10 @@
         <v>58.6750788643533</v>
       </c>
       <c r="G67">
-        <v>17.42</v>
+        <v>0.76</v>
       </c>
       <c r="H67">
-        <v>22.39</v>
+        <v>0.613095238095238</v>
       </c>
       <c r="I67">
         <v>2.09878879865516</v>
@@ -12173,6 +14573,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA67">
+        <v>4.212299915754001</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>96.3855421686747</v>
+      </c>
+      <c r="BD67">
+        <v>5.414771496642842</v>
+      </c>
+      <c r="BE67">
+        <v>12.04819277108434</v>
+      </c>
+      <c r="BF67">
+        <v>3.248862897985705</v>
+      </c>
+      <c r="BG67">
+        <v>18.95534962089301</v>
+      </c>
+      <c r="BH67">
+        <v>0</v>
+      </c>
+      <c r="BI67">
+        <v>0</v>
+      </c>
+      <c r="BJ67">
+        <v>0</v>
+      </c>
+      <c r="BK67">
+        <v>1</v>
+      </c>
+      <c r="BL67">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -12197,10 +14633,10 @@
         <v>56.7992358457798</v>
       </c>
       <c r="G68">
-        <v>25.92</v>
+        <v>0.911504424778761</v>
       </c>
       <c r="H68">
-        <v>27.56</v>
+        <v>0.685146443514644</v>
       </c>
       <c r="I68">
         <v>1.99555512013875</v>
@@ -12349,6 +14785,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA68">
+        <v>3.659803551190026</v>
+      </c>
+      <c r="BB68">
+        <v>1.155401502021953</v>
+      </c>
+      <c r="BC68">
+        <v>47.37146158290006</v>
+      </c>
+      <c r="BD68">
+        <v>4.169323588561338</v>
+      </c>
+      <c r="BE68">
+        <v>7.510109763142692</v>
+      </c>
+      <c r="BF68">
+        <v>2.268602540834846</v>
+      </c>
+      <c r="BG68">
+        <v>9.20853796751039</v>
+      </c>
+      <c r="BH68">
+        <v>0.7970765684014323</v>
+      </c>
+      <c r="BI68">
+        <v>0.3678814931083534</v>
+      </c>
+      <c r="BJ68">
+        <v>0.9810173149556091</v>
+      </c>
+      <c r="BK68">
+        <v>0</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -12373,10 +14845,10 @@
         <v>61.5130305129752</v>
       </c>
       <c r="G69">
-        <v>24.48</v>
+        <v>0.840336134453782</v>
       </c>
       <c r="H69">
-        <v>24.36</v>
+        <v>0.469714720554256</v>
       </c>
       <c r="I69">
         <v>3.16739544924522</v>
@@ -12522,6 +14994,42 @@
         <is>
           <t>Muito grande</t>
         </is>
+      </c>
+      <c r="BA69">
+        <v>5.171463457177743</v>
+      </c>
+      <c r="BB69">
+        <v>0.6682577565632458</v>
+      </c>
+      <c r="BC69">
+        <v>117.5178997613365</v>
+      </c>
+      <c r="BD69">
+        <v>7.060106375238938</v>
+      </c>
+      <c r="BE69">
+        <v>6.109785202863963</v>
+      </c>
+      <c r="BF69">
+        <v>2.804740471677467</v>
+      </c>
+      <c r="BG69">
+        <v>14.97854526425955</v>
+      </c>
+      <c r="BH69">
+        <v>0.9131367867028278</v>
+      </c>
+      <c r="BI69">
+        <v>0.510762690448411</v>
+      </c>
+      <c r="BJ69">
+        <v>1.144761727720131</v>
+      </c>
+      <c r="BK69">
+        <v>1</v>
+      </c>
+      <c r="BL69">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -12546,10 +15054,10 @@
         <v>66.5165165165165</v>
       </c>
       <c r="G70">
-        <v>23.18</v>
+        <v>0.75531914893617</v>
       </c>
       <c r="H70">
-        <v>20.33</v>
+        <v>0.36231884057971</v>
       </c>
       <c r="I70">
         <v>1.87628322261349</v>
@@ -12698,6 +15206,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA70">
+        <v>3.795786676788764</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>108.433734939759</v>
+      </c>
+      <c r="BD70">
+        <v>13.20754716981132</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>3.773584905660377</v>
+      </c>
+      <c r="BG70">
+        <v>18.97893338394382</v>
+      </c>
+      <c r="BH70">
+        <v>1.886792452830188</v>
+      </c>
+      <c r="BI70">
+        <v>0</v>
+      </c>
+      <c r="BJ70">
+        <v>1.886792452830188</v>
+      </c>
+      <c r="BK70">
+        <v>0</v>
+      </c>
+      <c r="BL70">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -12722,10 +15266,10 @@
         <v>57.5613079019074</v>
       </c>
       <c r="G71">
-        <v>23.29</v>
+        <v>0.846938775510204</v>
       </c>
       <c r="H71">
-        <v>24.92</v>
+        <v>0.451710261569416</v>
       </c>
       <c r="I71">
         <v>1.82144412816435</v>
@@ -12874,6 +15418,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA71">
+        <v>4.026485325697925</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>116.3265306122449</v>
+      </c>
+      <c r="BD71">
+        <v>9.856281660439636</v>
+      </c>
+      <c r="BE71">
+        <v>16.3265306122449</v>
+      </c>
+      <c r="BF71">
+        <v>2.521374378252</v>
+      </c>
+      <c r="BG71">
+        <v>8.500357909806729</v>
+      </c>
+      <c r="BH71">
+        <v>2.521374378252</v>
+      </c>
+      <c r="BI71">
+        <v>0.6876475577050909</v>
+      </c>
+      <c r="BJ71">
+        <v>2.979806083388727</v>
+      </c>
+      <c r="BK71">
+        <v>1</v>
+      </c>
+      <c r="BL71">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -12898,10 +15478,10 @@
         <v>57.2922399559714</v>
       </c>
       <c r="G72">
-        <v>19.95</v>
+        <v>0.858974358974359</v>
       </c>
       <c r="H72">
-        <v>23.57</v>
+        <v>0.6525630593978839</v>
       </c>
       <c r="I72">
         <v>1.52173701061254</v>
@@ -13050,6 +15630,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA72">
+        <v>3.868471953578336</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
+      <c r="BC72">
+        <v>90.05628517823639</v>
+      </c>
+      <c r="BD72">
+        <v>11.92272130030658</v>
+      </c>
+      <c r="BE72">
+        <v>16.88555347091933</v>
+      </c>
+      <c r="BF72">
+        <v>10.46279624312618</v>
+      </c>
+      <c r="BG72">
+        <v>10.15473887814313</v>
+      </c>
+      <c r="BH72">
+        <v>5.109737700131394</v>
+      </c>
+      <c r="BI72">
+        <v>0.9732833714535988</v>
+      </c>
+      <c r="BJ72">
+        <v>8.759550343082388</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -13074,10 +15690,10 @@
         <v>59.5526914329037</v>
       </c>
       <c r="G73">
-        <v>23.59</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="H73">
-        <v>24.52</v>
+        <v>0.392657992565056</v>
       </c>
       <c r="I73">
         <v>1.96609134107444</v>
@@ -13226,6 +15842,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA73">
+        <v>6.368615462998345</v>
+      </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
+        <v>123.989218328841</v>
+      </c>
+      <c r="BD73">
+        <v>4.670714619336758</v>
+      </c>
+      <c r="BE73">
+        <v>10.78167115902965</v>
+      </c>
+      <c r="BF73">
+        <v>3.18457814954779</v>
+      </c>
+      <c r="BG73">
+        <v>10.18978474079735</v>
+      </c>
+      <c r="BH73">
+        <v>2.759967729608085</v>
+      </c>
+      <c r="BI73">
+        <v>1.486136469788969</v>
+      </c>
+      <c r="BJ73">
+        <v>0.8492208398794107</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -13250,10 +15902,10 @@
         <v>46.1086429367931</v>
       </c>
       <c r="G74">
-        <v>22.07</v>
+        <v>0.893203883495145</v>
       </c>
       <c r="H74">
-        <v>24.61</v>
+        <v>0.9533998186763371</v>
       </c>
       <c r="I74">
         <v>1.79125242732551</v>
@@ -13402,6 +16054,42 @@
         <is>
           <t>Muito grande</t>
         </is>
+      </c>
+      <c r="BA74">
+        <v>5.110182184847624</v>
+      </c>
+      <c r="BB74">
+        <v>0.5824790307548928</v>
+      </c>
+      <c r="BC74">
+        <v>95.17707362534948</v>
+      </c>
+      <c r="BD74">
+        <v>6.816674762112489</v>
+      </c>
+      <c r="BE74">
+        <v>6.523765144454799</v>
+      </c>
+      <c r="BF74">
+        <v>3.434119055648198</v>
+      </c>
+      <c r="BG74">
+        <v>13.66631097710208</v>
+      </c>
+      <c r="BH74">
+        <v>1.495337126333299</v>
+      </c>
+      <c r="BI74">
+        <v>0.4846954823287246</v>
+      </c>
+      <c r="BJ74">
+        <v>1.185957031229858</v>
+      </c>
+      <c r="BK74">
+        <v>1</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -13426,10 +16114,10 @@
         <v>64.11694032839409</v>
       </c>
       <c r="G75">
-        <v>16.12</v>
+        <v>0.943820224719101</v>
       </c>
       <c r="H75">
-        <v>23.91</v>
+        <v>0.457013574660633</v>
       </c>
       <c r="I75">
         <v>1.80174924009731</v>
@@ -13575,6 +16263,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA75">
+        <v>10.20512297173181</v>
+      </c>
+      <c r="BB75">
+        <v>0</v>
+      </c>
+      <c r="BC75">
+        <v>75</v>
+      </c>
+      <c r="BD75">
+        <v>8.588829316537401</v>
+      </c>
+      <c r="BE75">
+        <v>9.615384615384617</v>
+      </c>
+      <c r="BF75">
+        <v>4.164280880745406</v>
+      </c>
+      <c r="BG75">
+        <v>12.75640371466476</v>
+      </c>
+      <c r="BH75">
+        <v>1.821872885326115</v>
+      </c>
+      <c r="BI75">
+        <v>1.561605330279527</v>
+      </c>
+      <c r="BJ75">
+        <v>2.342407995419291</v>
+      </c>
+      <c r="BK75">
+        <v>0</v>
+      </c>
+      <c r="BL75">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -13599,10 +16323,10 @@
         <v>43.3092490273646</v>
       </c>
       <c r="G76">
-        <v>23.36</v>
+        <v>0.95</v>
       </c>
       <c r="H76">
-        <v>24.23</v>
+        <v>1.33261339092873</v>
       </c>
       <c r="I76">
         <v>1.62760724539774</v>
@@ -13748,6 +16472,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA76">
+        <v>3.385185124762426</v>
+      </c>
+      <c r="BB76">
+        <v>0.2103934357248054</v>
+      </c>
+      <c r="BC76">
+        <v>89.41721018304229</v>
+      </c>
+      <c r="BD76">
+        <v>7.023641277662259</v>
+      </c>
+      <c r="BE76">
+        <v>7.784557121817799</v>
+      </c>
+      <c r="BF76">
+        <v>4.333736107493734</v>
+      </c>
+      <c r="BG76">
+        <v>12.68424787712186</v>
+      </c>
+      <c r="BH76">
+        <v>0.5764082507503981</v>
+      </c>
+      <c r="BI76">
+        <v>0.2988783522409472</v>
+      </c>
+      <c r="BJ76">
+        <v>2.049451558223638</v>
+      </c>
+      <c r="BK76">
+        <v>1</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -13772,10 +16532,10 @@
         <v>45.4545454545455</v>
       </c>
       <c r="G77">
-        <v>17.82</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="H77">
-        <v>19.96</v>
+        <v>0.783861671469741</v>
       </c>
       <c r="I77">
         <v>1.68732229845516</v>
@@ -13915,6 +16675,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA77">
+        <v>8.114687584527996</v>
+      </c>
+      <c r="BB77">
+        <v>0</v>
+      </c>
+      <c r="BC77">
+        <v>120.3703703703704</v>
+      </c>
+      <c r="BD77">
+        <v>9.606147934678194</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>2.744613695622341</v>
+      </c>
+      <c r="BG77">
+        <v>13.52447930754666</v>
+      </c>
+      <c r="BH77">
+        <v>1.37230684781117</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
+      <c r="BJ77">
+        <v>1.37230684781117</v>
+      </c>
+      <c r="BK77">
+        <v>1</v>
+      </c>
+      <c r="BL77">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -13939,10 +16735,10 @@
         <v>43.7988826815642</v>
       </c>
       <c r="G78">
-        <v>18.16</v>
+        <v>0.847058823529412</v>
       </c>
       <c r="H78">
-        <v>22.83</v>
+        <v>0.0805116629044394</v>
       </c>
       <c r="I78">
         <v>1.765724473008</v>
@@ -14091,6 +16887,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA78">
+        <v>6.122092006297009</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
+      <c r="BC78">
+        <v>54.6218487394958</v>
+      </c>
+      <c r="BD78">
+        <v>7.05529588147103</v>
+      </c>
+      <c r="BE78">
+        <v>25.21008403361344</v>
+      </c>
+      <c r="BF78">
+        <v>1.763823970367757</v>
+      </c>
+      <c r="BG78">
+        <v>12.24418401259402</v>
+      </c>
+      <c r="BH78">
+        <v>3.527647940735515</v>
+      </c>
+      <c r="BI78">
+        <v>1.763823970367757</v>
+      </c>
+      <c r="BJ78">
+        <v>0.4409559925919393</v>
+      </c>
+      <c r="BK78">
+        <v>0</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -14115,10 +16947,10 @@
         <v>48.5104771522343</v>
       </c>
       <c r="G79">
-        <v>20.31</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="H79">
-        <v>23.08</v>
+        <v>0.870879590093937</v>
       </c>
       <c r="I79">
         <v>1.80323245962513</v>
@@ -14267,6 +17099,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA79">
+        <v>2.141709798322327</v>
+      </c>
+      <c r="BB79">
+        <v>0.6426735218508997</v>
+      </c>
+      <c r="BC79">
+        <v>61.05398457583548</v>
+      </c>
+      <c r="BD79">
+        <v>6.685165343370239</v>
+      </c>
+      <c r="BE79">
+        <v>3.856041131105398</v>
+      </c>
+      <c r="BF79">
+        <v>2.930483438189694</v>
+      </c>
+      <c r="BG79">
+        <v>10.8870248081385</v>
+      </c>
+      <c r="BH79">
+        <v>1.190508896764563</v>
+      </c>
+      <c r="BI79">
+        <v>0.9157760744342793</v>
+      </c>
+      <c r="BJ79">
+        <v>1.831552148868559</v>
+      </c>
+      <c r="BK79">
+        <v>0</v>
+      </c>
+      <c r="BL79">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -14291,10 +17159,10 @@
         <v>55.9099437148218</v>
       </c>
       <c r="G80">
-        <v>22.66</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="H80">
-        <v>20.91</v>
+        <v>0.269121813031161</v>
       </c>
       <c r="I80">
         <v>1.95980138244309</v>
@@ -14437,6 +17305,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA80">
+        <v>7.383706620723602</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>46.51162790697674</v>
+      </c>
+      <c r="BD80">
+        <v>9.942828734775043</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>12.30617770120601</v>
+      </c>
+      <c r="BH80">
+        <v>1.24285359184688</v>
+      </c>
+      <c r="BI80">
+        <v>0</v>
+      </c>
+      <c r="BJ80">
+        <v>2.485707183693761</v>
+      </c>
+      <c r="BK80">
+        <v>1</v>
+      </c>
+      <c r="BL80">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -14461,10 +17365,10 @@
         <v>51.5126050420168</v>
       </c>
       <c r="G81">
-        <v>19.6</v>
+        <v>0.910112359550562</v>
       </c>
       <c r="H81">
-        <v>22.2</v>
+        <v>0.517667844522968</v>
       </c>
       <c r="I81">
         <v>1.66196931084965</v>
@@ -14613,6 +17517,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA81">
+        <v>5.396654074473826</v>
+      </c>
+      <c r="BB81">
+        <v>4.975124378109452</v>
+      </c>
+      <c r="BC81">
+        <v>109.452736318408</v>
+      </c>
+      <c r="BD81">
+        <v>8.740303725554464</v>
+      </c>
+      <c r="BE81">
+        <v>14.92537313432836</v>
+      </c>
+      <c r="BF81">
+        <v>1.092537965694308</v>
+      </c>
+      <c r="BG81">
+        <v>14.03130059363195</v>
+      </c>
+      <c r="BH81">
+        <v>2.73134491423577</v>
+      </c>
+      <c r="BI81">
+        <v>0</v>
+      </c>
+      <c r="BJ81">
+        <v>0.546268982847154</v>
+      </c>
+      <c r="BK81">
+        <v>1</v>
+      </c>
+      <c r="BL81">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -14637,10 +17577,10 @@
         <v>65.47913574138219</v>
       </c>
       <c r="G82">
-        <v>22.02</v>
+        <v>0.851851851851852</v>
       </c>
       <c r="H82">
-        <v>24.22</v>
+        <v>0.738858879135719</v>
       </c>
       <c r="I82">
         <v>1.9592027115271</v>
@@ -14789,6 +17729,42 @@
         <is>
           <t>Médio</t>
         </is>
+      </c>
+      <c r="BA82">
+        <v>6.645208181912574</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>60.63193851409052</v>
+      </c>
+      <c r="BD82">
+        <v>7.675087943716022</v>
+      </c>
+      <c r="BE82">
+        <v>5.977796754910333</v>
+      </c>
+      <c r="BF82">
+        <v>2.984756422556231</v>
+      </c>
+      <c r="BG82">
+        <v>16.1976949434119</v>
+      </c>
+      <c r="BH82">
+        <v>1.27918132395267</v>
+      </c>
+      <c r="BI82">
+        <v>0.4263937746508901</v>
+      </c>
+      <c r="BJ82">
+        <v>1.385779767615393</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -14813,10 +17789,10 @@
         <v>37.4919510624598</v>
       </c>
       <c r="G83">
-        <v>24.6</v>
+        <v>0.93</v>
       </c>
       <c r="H83">
-        <v>29.93</v>
+        <v>0.876666666666667</v>
       </c>
       <c r="I83">
         <v>2.22953281945908</v>
@@ -14965,6 +17941,42 @@
         <is>
           <t>Médio</t>
         </is>
+      </c>
+      <c r="BA83">
+        <v>3.691228717759424</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="BD83">
+        <v>7.12741441163194</v>
+      </c>
+      <c r="BE83">
+        <v>5.870841487279844</v>
+      </c>
+      <c r="BF83">
+        <v>3.207336485234373</v>
+      </c>
+      <c r="BG83">
+        <v>10.15087897383842</v>
+      </c>
+      <c r="BH83">
+        <v>1.663063362714119</v>
+      </c>
+      <c r="BI83">
+        <v>0.2375804803877313</v>
+      </c>
+      <c r="BJ83">
+        <v>1.663063362714119</v>
+      </c>
+      <c r="BK83">
+        <v>0</v>
+      </c>
+      <c r="BL83">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -14989,10 +18001,10 @@
         <v>55.0245098039216</v>
       </c>
       <c r="G84">
-        <v>18.35</v>
+        <v>0.847826086956522</v>
       </c>
       <c r="H84">
-        <v>25.87</v>
+        <v>0.804852320675106</v>
       </c>
       <c r="I84">
         <v>1.82953065874598</v>
@@ -15141,6 +18153,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA84">
+        <v>4.494786048184106</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <v>58.13953488372093</v>
+      </c>
+      <c r="BD84">
+        <v>9.064950369396728</v>
+      </c>
+      <c r="BE84">
+        <v>7.751937984496124</v>
+      </c>
+      <c r="BF84">
+        <v>5.892217740107873</v>
+      </c>
+      <c r="BG84">
+        <v>7.19165767709457</v>
+      </c>
+      <c r="BH84">
+        <v>2.719485110819019</v>
+      </c>
+      <c r="BI84">
+        <v>0</v>
+      </c>
+      <c r="BJ84">
+        <v>1.812990073879346</v>
+      </c>
+      <c r="BK84">
+        <v>1</v>
+      </c>
+      <c r="BL84">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -15165,10 +18213,10 @@
         <v>48.7068965517241</v>
       </c>
       <c r="G85">
-        <v>19.66</v>
+        <v>0.875</v>
       </c>
       <c r="H85">
-        <v>20.63</v>
+        <v>0.316720257234727</v>
       </c>
       <c r="I85">
         <v>1.86992268856249</v>
@@ -15317,6 +18365,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA85">
+        <v>2.616431187859759</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
+        <v>99.47643979057591</v>
+      </c>
+      <c r="BD85">
+        <v>3.830928361639637</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
+        <v>1.915464180819819</v>
+      </c>
+      <c r="BG85">
+        <v>14.39037153322868</v>
+      </c>
+      <c r="BH85">
+        <v>3.830928361639637</v>
+      </c>
+      <c r="BI85">
+        <v>0</v>
+      </c>
+      <c r="BJ85">
+        <v>1.915464180819819</v>
+      </c>
+      <c r="BK85">
+        <v>1</v>
+      </c>
+      <c r="BL85">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -15341,10 +18425,10 @@
         <v>48.3634797588286</v>
       </c>
       <c r="G86">
-        <v>20.93</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="H86">
-        <v>23.34</v>
+        <v>0.96078431372549</v>
       </c>
       <c r="I86">
         <v>1.91018186043166</v>
@@ -15493,6 +18577,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA86">
+        <v>3.574620196604111</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>86.72086720867209</v>
+      </c>
+      <c r="BD86">
+        <v>6.085871648966923</v>
+      </c>
+      <c r="BE86">
+        <v>10.84010840108401</v>
+      </c>
+      <c r="BF86">
+        <v>3.9558165718285</v>
+      </c>
+      <c r="BG86">
+        <v>8.936550491510276</v>
+      </c>
+      <c r="BH86">
+        <v>1.825761494690077</v>
+      </c>
+      <c r="BI86">
+        <v>0.3042935824483462</v>
+      </c>
+      <c r="BJ86">
+        <v>0.3042935824483462</v>
+      </c>
+      <c r="BK86">
+        <v>0</v>
+      </c>
+      <c r="BL86">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -15517,10 +18637,10 @@
         <v>51.9058397464916</v>
       </c>
       <c r="G87">
-        <v>19.5</v>
+        <v>0.790476190476191</v>
       </c>
       <c r="H87">
-        <v>23.72</v>
+        <v>0.278121720881427</v>
       </c>
       <c r="I87">
         <v>2.43522653687882</v>
@@ -15669,6 +18789,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA87">
+        <v>3.800712362088437</v>
+      </c>
+      <c r="BB87">
+        <v>0.500751126690035</v>
+      </c>
+      <c r="BC87">
+        <v>86.12919379068602</v>
+      </c>
+      <c r="BD87">
+        <v>7.585964832825716</v>
+      </c>
+      <c r="BE87">
+        <v>2.00300450676014</v>
+      </c>
+      <c r="BF87">
+        <v>1.585126979993433</v>
+      </c>
+      <c r="BG87">
+        <v>17.04890973851099</v>
+      </c>
+      <c r="BH87">
+        <v>1.3586802685658</v>
+      </c>
+      <c r="BI87">
+        <v>0.8491751678536248</v>
+      </c>
+      <c r="BJ87">
+        <v>1.471903624279616</v>
+      </c>
+      <c r="BK87">
+        <v>0</v>
+      </c>
+      <c r="BL87">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -15693,10 +18849,10 @@
         <v>58.3832335329341</v>
       </c>
       <c r="G88">
-        <v>23.61</v>
+        <v>0.847058823529412</v>
       </c>
       <c r="H88">
-        <v>20.16</v>
+        <v>0.6884875846501129</v>
       </c>
       <c r="I88">
         <v>1.77311437765641</v>
@@ -15845,6 +19001,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA88">
+        <v>5.70233795856301</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
+      <c r="BC88">
+        <v>230.7692307692308</v>
+      </c>
+      <c r="BD88">
+        <v>7.501875468867217</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>1.875468867216804</v>
+      </c>
+      <c r="BG88">
+        <v>15.20623455616803</v>
+      </c>
+      <c r="BH88">
+        <v>1.875468867216804</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>1.875468867216804</v>
+      </c>
+      <c r="BK88">
+        <v>1</v>
+      </c>
+      <c r="BL88">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -15869,10 +19061,10 @@
         <v>54.6977421704297</v>
       </c>
       <c r="G89">
-        <v>26.74</v>
+        <v>0.842592592592593</v>
       </c>
       <c r="H89">
-        <v>26.2</v>
+        <v>0.560186082574142</v>
       </c>
       <c r="I89">
         <v>2.2256578322409</v>
@@ -16021,6 +19213,42 @@
         <is>
           <t>Médio</t>
         </is>
+      </c>
+      <c r="BA89">
+        <v>6.268282490597576</v>
+      </c>
+      <c r="BB89">
+        <v>0</v>
+      </c>
+      <c r="BC89">
+        <v>87.77777777777777</v>
+      </c>
+      <c r="BD89">
+        <v>11.18432249750784</v>
+      </c>
+      <c r="BE89">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="BF89">
+        <v>2.188237010381969</v>
+      </c>
+      <c r="BG89">
+        <v>10.91145470585504</v>
+      </c>
+      <c r="BH89">
+        <v>1.945099564783972</v>
+      </c>
+      <c r="BI89">
+        <v>0.1215687227989983</v>
+      </c>
+      <c r="BJ89">
+        <v>1.701962119185976</v>
+      </c>
+      <c r="BK89">
+        <v>1</v>
+      </c>
+      <c r="BL89">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -16045,10 +19273,10 @@
         <v>51.2315270935961</v>
       </c>
       <c r="G90">
-        <v>23.26</v>
+        <v>0.842592592592593</v>
       </c>
       <c r="H90">
-        <v>21.6</v>
+        <v>0.460795184539838</v>
       </c>
       <c r="I90">
         <v>2.00310010920251</v>
@@ -16197,6 +19425,42 @@
         <is>
           <t>Médio</t>
         </is>
+      </c>
+      <c r="BA90">
+        <v>6.365541203617749</v>
+      </c>
+      <c r="BB90">
+        <v>0</v>
+      </c>
+      <c r="BC90">
+        <v>101.123595505618</v>
+      </c>
+      <c r="BD90">
+        <v>7.51659915647054</v>
+      </c>
+      <c r="BE90">
+        <v>7.022471910112359</v>
+      </c>
+      <c r="BF90">
+        <v>1.948747929455325</v>
+      </c>
+      <c r="BG90">
+        <v>16.97477654298066</v>
+      </c>
+      <c r="BH90">
+        <v>0.417588842026141</v>
+      </c>
+      <c r="BI90">
+        <v>0.2783925613507607</v>
+      </c>
+      <c r="BJ90">
+        <v>1.252766526078423</v>
+      </c>
+      <c r="BK90">
+        <v>1</v>
+      </c>
+      <c r="BL90">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -16221,10 +19485,10 @@
         <v>46.7564259485924</v>
       </c>
       <c r="G91">
-        <v>25.17</v>
+        <v>0.820224719101124</v>
       </c>
       <c r="H91">
-        <v>26.33</v>
+        <v>0.404867256637168</v>
       </c>
       <c r="I91">
         <v>1.74114681354352</v>
@@ -16373,6 +19637,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA91">
+        <v>1.960015680125441</v>
+      </c>
+      <c r="BB91">
+        <v>0</v>
+      </c>
+      <c r="BC91">
+        <v>51.72413793103448</v>
+      </c>
+      <c r="BD91">
+        <v>6.652727618323513</v>
+      </c>
+      <c r="BE91">
+        <v>0</v>
+      </c>
+      <c r="BF91">
+        <v>0.9503896597605018</v>
+      </c>
+      <c r="BG91">
+        <v>7.840062720501764</v>
+      </c>
+      <c r="BH91">
+        <v>0</v>
+      </c>
+      <c r="BI91">
+        <v>0.9503896597605018</v>
+      </c>
+      <c r="BJ91">
+        <v>0</v>
+      </c>
+      <c r="BK91">
+        <v>1</v>
+      </c>
+      <c r="BL91">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -16397,10 +19697,10 @@
         <v>44.6746788230419</v>
       </c>
       <c r="G92">
-        <v>26.09</v>
+        <v>0.785046728971963</v>
       </c>
       <c r="H92">
-        <v>30.3</v>
+        <v>0.540983606557377</v>
       </c>
       <c r="I92">
         <v>2.33375602578747</v>
@@ -16549,6 +19849,42 @@
         <is>
           <t>Pequeno</t>
         </is>
+      </c>
+      <c r="BA92">
+        <v>4.747837096433847</v>
+      </c>
+      <c r="BB92">
+        <v>0</v>
+      </c>
+      <c r="BC92">
+        <v>95.8904109589041</v>
+      </c>
+      <c r="BD92">
+        <v>7.230255839822024</v>
+      </c>
+      <c r="BE92">
+        <v>6.849315068493151</v>
+      </c>
+      <c r="BF92">
+        <v>2.780867630700778</v>
+      </c>
+      <c r="BG92">
+        <v>13.71597383414223</v>
+      </c>
+      <c r="BH92">
+        <v>1.668520578420467</v>
+      </c>
+      <c r="BI92">
+        <v>0</v>
+      </c>
+      <c r="BJ92">
+        <v>0.5561735261401558</v>
+      </c>
+      <c r="BK92">
+        <v>1</v>
+      </c>
+      <c r="BL92">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -16573,10 +19909,10 @@
         <v>58.4045406349404</v>
       </c>
       <c r="G93">
-        <v>23.92</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="H93">
-        <v>25.7</v>
+        <v>0.519512448491984</v>
       </c>
       <c r="I93">
         <v>2.20603418811007</v>
@@ -16725,6 +20061,42 @@
         <is>
           <t>Grande</t>
         </is>
+      </c>
+      <c r="BA93">
+        <v>6.374912684041695</v>
+      </c>
+      <c r="BB93">
+        <v>0</v>
+      </c>
+      <c r="BC93">
+        <v>92.91395516992046</v>
+      </c>
+      <c r="BD93">
+        <v>6.613000085790271</v>
+      </c>
+      <c r="BE93">
+        <v>6.507592190889371</v>
+      </c>
+      <c r="BF93">
+        <v>2.573708141496755</v>
+      </c>
+      <c r="BG93">
+        <v>16.00509993014724</v>
+      </c>
+      <c r="BH93">
+        <v>1.143870285109668</v>
+      </c>
+      <c r="BI93">
+        <v>0.6791729817838658</v>
+      </c>
+      <c r="BJ93">
+        <v>1.823043266893534</v>
+      </c>
+      <c r="BK93">
+        <v>0</v>
+      </c>
+      <c r="BL93">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
